--- a/backend/calculator8thFloor/fact_plan.xlsx
+++ b/backend/calculator8thFloor/fact_plan.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+  <si>
+    <t>Общие Данные</t>
+  </si>
   <si>
     <t>ФАКТ</t>
   </si>
   <si>
+    <t>ПЛАН</t>
+  </si>
+  <si>
     <t>Машина</t>
   </si>
   <si>
@@ -37,7 +43,22 @@
     <t>Факт нагрузка в %</t>
   </si>
   <si>
-    <t xml:space="preserve">Факт нехватка машин </t>
+    <t>Факт нехватка машин</t>
+  </si>
+  <si>
+    <t>Кол-во новых УЗ</t>
+  </si>
+  <si>
+    <t>Количество файлов новых УЗ в месяц</t>
+  </si>
+  <si>
+    <t>Среднее кол-во файлов с учетом новых УЗ в месяц</t>
+  </si>
+  <si>
+    <t>Планируемая нагрузка в %</t>
+  </si>
+  <si>
+    <t>Планируемая нехватка машин</t>
   </si>
   <si>
     <t>180 часов</t>
@@ -58,34 +79,19 @@
     <t>0.9644542772861356</t>
   </si>
   <si>
+    <t>1.0311209439528024</t>
+  </si>
+  <si>
     <t>0.355982905982906</t>
   </si>
   <si>
-    <t>0.48846153846153845</t>
-  </si>
-  <si>
-    <t>ПЛАН</t>
-  </si>
-  <si>
-    <t>Кол-во новых УЗ</t>
-  </si>
-  <si>
-    <t>Среднее кол-во файлов с учетом новых УЗ в месяц</t>
-  </si>
-  <si>
-    <t>Планируемая нагрузка в %</t>
-  </si>
-  <si>
-    <t>Планируемая нехватка машин</t>
-  </si>
-  <si>
-    <t>1.0311209439528024</t>
-  </si>
-  <si>
     <t>0.405982905982906</t>
   </si>
   <si>
-    <t>0.5786324786324787</t>
+    <t>4.273504273504273</t>
+  </si>
+  <si>
+    <t>4.363675213675213</t>
   </si>
 </sst>
 </file>
@@ -417,64 +423,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>870</v>
@@ -489,33 +495,36 @@
         <v>1740</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>6991</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1740</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="N3">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>840</v>
@@ -530,33 +539,36 @@
         <v>3360</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>6991</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3360</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>21</v>
       </c>
-      <c r="M4">
-        <v>1</v>
+      <c r="N4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>420</v>
@@ -571,7 +583,7 @@
         <v>1680</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -580,24 +592,27 @@
         <v>600</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>6991</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1680</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>21</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>1170</v>
@@ -612,39 +627,42 @@
         <v>2340</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>950</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2340</v>
       </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>1170</v>
       </c>
       <c r="C7">
-        <v>1143</v>
+        <v>10000</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -653,46 +671,49 @@
         <v>2340</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>600</v>
       </c>
       <c r="I7">
-        <v>1354</v>
+        <v>1</v>
       </c>
       <c r="J7">
+        <v>10211</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2340</v>
       </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H3:H7"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="F3:F5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/calculator8thFloor/fact_plan.xlsx
+++ b/backend/calculator8thFloor/fact_plan.xlsx
@@ -88,10 +88,10 @@
     <t>0.405982905982906</t>
   </si>
   <si>
-    <t>4.273504273504273</t>
-  </si>
-  <si>
-    <t>4.363675213675213</t>
+    <t>0.48846153846153845</t>
+  </si>
+  <si>
+    <t>0.5786324786324787</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -519,7 +519,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -563,7 +563,7 @@
         <v>21</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -630,7 +630,7 @@
         <v>22</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -651,7 +651,7 @@
         <v>23</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -662,7 +662,7 @@
         <v>1170</v>
       </c>
       <c r="C7">
-        <v>10000</v>
+        <v>1143</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -674,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>10211</v>
+        <v>1354</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -695,7 +695,7 @@
         <v>25</v>
       </c>
       <c r="N7">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/calculator8thFloor/fact_plan.xlsx
+++ b/backend/calculator8thFloor/fact_plan.xlsx
@@ -76,29 +76,29 @@
     <t>180 часов ночь</t>
   </si>
   <si>
-    <t>0.9644542772861356</t>
-  </si>
-  <si>
-    <t>1.0311209439528024</t>
-  </si>
-  <si>
-    <t>0.355982905982906</t>
-  </si>
-  <si>
-    <t>0.405982905982906</t>
-  </si>
-  <si>
-    <t>0.48846153846153845</t>
-  </si>
-  <si>
-    <t>0.5786324786324787</t>
+    <t>96</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +106,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF59D0E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,17 +145,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00CC00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -423,278 +522,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="12" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>870</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>6539</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>1740</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>600</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>6991</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1740</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N3">
+      <c r="L3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>840</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>6539</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>3360</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2520</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>600</v>
+      </c>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>600</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>6991</v>
       </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <v>3360</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N4">
-        <v>1</v>
+      <c r="L4" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>420</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>6539</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>1680</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2520</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>600</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>6991</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>1680</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N5">
+      <c r="L5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1170</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>833</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>2340</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>600</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>950</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>2340</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N6">
+      <c r="L6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1170</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>1143</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>2340</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>600</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>1354</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>2340</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="K7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N7">
+      <c r="L7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -703,7 +784,6 @@
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H3:H7"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="I3:I5"/>
@@ -714,7 +794,40 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="H3:H7"/>
   </mergeCells>
+  <conditionalFormatting sqref="F3:F7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>97</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+      <formula>97</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G7">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K7">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+      <formula>97</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
+      <formula>97</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L7">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/backend/calculator8thFloor/fact_plan.xlsx
+++ b/backend/calculator8thFloor/fact_plan.xlsx
@@ -76,22 +76,22 @@
     <t>180 часов ночь</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>58</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>249</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
         <v>870</v>
       </c>
       <c r="C3" s="3">
-        <v>6539</v>
+        <v>6258</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -609,22 +609,22 @@
         <v>20</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>600</v>
+        <v>8300</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>6259</v>
       </c>
       <c r="J3" s="3">
-        <v>6991</v>
+        <v>12517</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -635,7 +635,7 @@
         <v>840</v>
       </c>
       <c r="C4" s="3">
-        <v>6539</v>
+        <v>6258</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -647,16 +647,16 @@
         <v>20</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
-        <v>600</v>
+        <v>8300</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>6259</v>
       </c>
       <c r="J4" s="3">
-        <v>6991</v>
+        <v>12517</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>21</v>
@@ -673,13 +673,13 @@
         <v>420</v>
       </c>
       <c r="C5" s="3">
-        <v>6539</v>
+        <v>6258</v>
       </c>
       <c r="D5" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>2520</v>
+        <v>840</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>20</v>
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>600</v>
+        <v>8300</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>6259</v>
       </c>
       <c r="J5" s="3">
-        <v>6991</v>
+        <v>12517</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>21</v>
@@ -711,7 +711,7 @@
         <v>1170</v>
       </c>
       <c r="C6" s="3">
-        <v>833</v>
+        <v>1619</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
-        <v>600</v>
+        <v>8300</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>1618</v>
       </c>
       <c r="J6" s="3">
-        <v>950</v>
+        <v>3237</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -749,7 +749,7 @@
         <v>1170</v>
       </c>
       <c r="C7" s="3">
-        <v>1143</v>
+        <v>2913</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -761,22 +761,22 @@
         <v>24</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>600</v>
+        <v>8300</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>2913</v>
       </c>
       <c r="J7" s="3">
-        <v>1354</v>
+        <v>5826</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -798,10 +798,10 @@
   </mergeCells>
   <conditionalFormatting sqref="F3:F7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>97</formula>
+      <formula>96</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
-      <formula>97</formula>
+      <formula>96</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G7">
@@ -814,10 +814,10 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
-      <formula>97</formula>
+      <formula>96</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
-      <formula>97</formula>
+      <formula>96</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">

--- a/backend/calculator8thFloor/fact_plan.xlsx
+++ b/backend/calculator8thFloor/fact_plan.xlsx
@@ -76,22 +76,22 @@
     <t>180 часов ночь</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>249</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -597,34 +597,34 @@
         <v>870</v>
       </c>
       <c r="C3" s="3">
-        <v>6258</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3">
-        <v>1740</v>
+        <v>4350</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>8300</v>
+        <v>600</v>
       </c>
       <c r="I3" s="3">
-        <v>6259</v>
+        <v>452</v>
       </c>
       <c r="J3" s="3">
-        <v>12517</v>
+        <v>5452</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -635,28 +635,28 @@
         <v>840</v>
       </c>
       <c r="C4" s="3">
-        <v>6258</v>
+        <v>5000</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>2520</v>
+        <v>1680</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>8300</v>
+        <v>600</v>
       </c>
       <c r="I4" s="3">
-        <v>6259</v>
+        <v>452</v>
       </c>
       <c r="J4" s="3">
-        <v>12517</v>
+        <v>5452</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>21</v>
@@ -673,13 +673,13 @@
         <v>420</v>
       </c>
       <c r="C5" s="3">
-        <v>6258</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3">
-        <v>840</v>
+        <v>2100</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>20</v>
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>8300</v>
+        <v>600</v>
       </c>
       <c r="I5" s="3">
-        <v>6259</v>
+        <v>452</v>
       </c>
       <c r="J5" s="3">
-        <v>12517</v>
+        <v>5452</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>21</v>
@@ -711,34 +711,34 @@
         <v>1170</v>
       </c>
       <c r="C6" s="3">
-        <v>1619</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>2340</v>
+        <v>5850</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>8300</v>
+        <v>600</v>
       </c>
       <c r="I6" s="3">
-        <v>1618</v>
+        <v>117</v>
       </c>
       <c r="J6" s="3">
-        <v>3237</v>
+        <v>2117</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -749,34 +749,34 @@
         <v>1170</v>
       </c>
       <c r="C7" s="3">
-        <v>2913</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3">
-        <v>2340</v>
+        <v>5850</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>8300</v>
+        <v>600</v>
       </c>
       <c r="I7" s="3">
-        <v>2913</v>
+        <v>211</v>
       </c>
       <c r="J7" s="3">
-        <v>5826</v>
+        <v>1211</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -798,10 +798,10 @@
   </mergeCells>
   <conditionalFormatting sqref="F3:F7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>96</formula>
+      <formula>90</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
-      <formula>96</formula>
+      <formula>90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G7">
@@ -814,10 +814,10 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
-      <formula>96</formula>
+      <formula>90</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
-      <formula>96</formula>
+      <formula>90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7">
